--- a/medicine/Psychotrope/Whisky_Magazine/Whisky_Magazine.xlsx
+++ b/medicine/Psychotrope/Whisky_Magazine/Whisky_Magazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Whisky Magazine est un magazine trimestriel français édité depuis 2004 par Figures de Still, société filiale de La Maison du Whisky. La direction de la publication est assurée par Thierry Bénitah, PDG de La Maison du Whisky.
@@ -514,7 +526,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Maison du whisky</t>
         </is>
